--- a/personal/MinjiKim/카테고리정리중.xlsx
+++ b/personal/MinjiKim/카테고리정리중.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Desktop\sw아카데미\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuyh\Desktop\민지\고려대학교 교육\프로젝트\personal\MinjiKim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB3E2CD-F19A-4518-B80A-F02F786779F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916994BF-7554-4DDB-B9E5-CA8D456A94E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
